--- a/outputs-HGR-r202/g__Dorea_A.xlsx
+++ b/outputs-HGR-r202/g__Dorea_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__Dorea_A sp900550865</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__Dorea_A sp900550865</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -509,6 +519,11 @@
         <v>0.3950636639834278</v>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Dorea_A sp900550865</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>s__Dorea_A sp900550865</t>
         </is>

--- a/outputs-HGR-r202/g__Dorea_A.xlsx
+++ b/outputs-HGR-r202/g__Dorea_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,35 +500,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT44474.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2552165491445714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3497197868720008</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3950636639834278</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3950636639834278</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
